--- a/documents/Notts police analysis excel.xlsx
+++ b/documents/Notts police analysis excel.xlsx
@@ -8,18 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barnie/Documents/DRUGS STORY &amp; ASSIGNMENT/DRUGS FOI FOR GITHUB/EXCEL SHEETS &amp; FOI RESPONSES/NOTTINGHAMSHIRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58D2FC59-3BCF-C042-B208-468E1C9DF49F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E42FAFC-4640-2B47-9FE1-B6CA26501FB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{451DFFE1-DC3C-6D48-9F32-5DFD61038789}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$38:$A$40</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$38:$B$40</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2345,8 +2341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C68C8C2-CA83-C243-916B-F10F3FA26C6A}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
